--- a/Formulas/Monster_Damage_Formula.xlsx
+++ b/Formulas/Monster_Damage_Formula.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dean\Documents\GitHub\DAServer\Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c7a9d974b5a477f/Documents/GitHub/Lorule-Dark-Ages-Server/Formulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="26" documentId="9D46AC1D95F20B618B45972FA377000BD18CE3EB" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{805A8151-50CC-4459-A5A0-0B2C928C6452}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{9BE49FCF-3788-4461-8D8C-986F4AB6ADA4}"/>
   </bookViews>
@@ -24,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>lvl</t>
   </si>
   <si>
     <t>str</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wis</t>
-  </si>
-  <si>
-    <t>dex</t>
-  </si>
-  <si>
-    <t>con</t>
   </si>
   <si>
     <t>DMG</t>
@@ -396,66 +385,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1031B4EE-7AB9-4C1A-B3EF-94EF2F5197BF}">
-  <dimension ref="F5:L7"/>
+  <dimension ref="F5:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <f>INT(G6*3.58) * 4</f>
+        <v>14320</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <f>INT(G6*2.58)</f>
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <f>INT(G6*2.58)</f>
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <f>INT(G6*2.58)</f>
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <f>INT(G6*2.58)</f>
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <f>INT(G6*2.58)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
       <c r="G7">
-        <f xml:space="preserve"> H6 + I6 + J6 + K6 + L6 * 10</f>
-        <v>98</v>
+        <f xml:space="preserve"> H6 + 1</f>
+        <v>14321</v>
       </c>
     </row>
   </sheetData>
